--- a/Data Science/LCS/Players/0.xlsx
+++ b/Data Science/LCS/Players/0.xlsx
@@ -14,11 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+  <si>
+    <t>datacompleteness</t>
+  </si>
   <si>
     <t>league</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>playoffs</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
@@ -106,13 +115,13 @@
     <t>opp_elementaldrakes</t>
   </si>
   <si>
-    <t>dragons (type unknown)</t>
-  </si>
-  <si>
     <t>elders</t>
   </si>
   <si>
     <t>opp_elders</t>
+  </si>
+  <si>
+    <t>firstherald</t>
   </si>
   <si>
     <t>heralds</t>
@@ -626,13 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:CH1"/>
+  <dimension ref="B1:CK1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:86">
+    <row r="1" spans="2:89">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,6 +896,15 @@
       </c>
       <c r="CH1" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
